--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value10.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value10.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.568295855073986</v>
+        <v>3.367497205734253</v>
       </c>
       <c r="B1">
-        <v>2.179595385524161</v>
+        <v>6.692091941833496</v>
       </c>
       <c r="C1">
-        <v>2.234714996654553</v>
+        <v>5.822466850280762</v>
       </c>
       <c r="D1">
-        <v>1.828612448104899</v>
+        <v>6.575465679168701</v>
       </c>
       <c r="E1">
-        <v>0.5484109339946435</v>
+        <v>4.787083148956299</v>
       </c>
     </row>
   </sheetData>
